--- a/Code/Results/Cases/Case_1_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002363858667835</v>
+        <v>1.040469427188328</v>
       </c>
       <c r="D2">
-        <v>1.027708494305021</v>
+        <v>1.03405753044538</v>
       </c>
       <c r="E2">
-        <v>1.014629103432553</v>
+        <v>1.047758228971069</v>
       </c>
       <c r="F2">
-        <v>1.017153475820464</v>
+        <v>1.056043552281245</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044244147358452</v>
+        <v>1.036670433895397</v>
       </c>
       <c r="J2">
-        <v>1.024474096274964</v>
+        <v>1.045555864413027</v>
       </c>
       <c r="K2">
-        <v>1.038794844447907</v>
+        <v>1.036858098106587</v>
       </c>
       <c r="L2">
-        <v>1.025888325430442</v>
+        <v>1.050519972059028</v>
       </c>
       <c r="M2">
-        <v>1.028378898136779</v>
+        <v>1.058782346459902</v>
       </c>
       <c r="N2">
-        <v>1.011588110185734</v>
+        <v>1.019020010373312</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007922923618468</v>
+        <v>1.04162434526889</v>
       </c>
       <c r="D3">
-        <v>1.030158736750835</v>
+        <v>1.034567264428856</v>
       </c>
       <c r="E3">
-        <v>1.019482703787084</v>
+        <v>1.0488224980137</v>
       </c>
       <c r="F3">
-        <v>1.02271035730173</v>
+        <v>1.057278947973397</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045521401394235</v>
+        <v>1.036876622630976</v>
       </c>
       <c r="J3">
-        <v>1.028199907516385</v>
+        <v>1.046355387686997</v>
       </c>
       <c r="K3">
-        <v>1.040419742272449</v>
+        <v>1.037177739477238</v>
       </c>
       <c r="L3">
-        <v>1.029872223919627</v>
+        <v>1.051395495823166</v>
       </c>
       <c r="M3">
-        <v>1.033060672605983</v>
+        <v>1.059830228762355</v>
       </c>
       <c r="N3">
-        <v>1.012875127979134</v>
+        <v>1.019291637777339</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011434547080913</v>
+        <v>1.042371534510398</v>
       </c>
       <c r="D4">
-        <v>1.031713515648018</v>
+        <v>1.034897186743521</v>
       </c>
       <c r="E4">
-        <v>1.022554935007402</v>
+        <v>1.049511420318782</v>
       </c>
       <c r="F4">
-        <v>1.026228816094159</v>
+        <v>1.05807890629347</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04631931688457</v>
+        <v>1.037008810324822</v>
       </c>
       <c r="J4">
-        <v>1.030550210697165</v>
+        <v>1.04687208065869</v>
       </c>
       <c r="K4">
-        <v>1.041443679674978</v>
+        <v>1.037383943545992</v>
       </c>
       <c r="L4">
-        <v>1.032388554700905</v>
+        <v>1.051961689464372</v>
       </c>
       <c r="M4">
-        <v>1.036020662112929</v>
+        <v>1.060508288731429</v>
       </c>
       <c r="N4">
-        <v>1.013686353058058</v>
+        <v>1.019467023181818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012891255389573</v>
+        <v>1.042685625450426</v>
       </c>
       <c r="D5">
-        <v>1.032360020739599</v>
+        <v>1.035035906536953</v>
       </c>
       <c r="E5">
-        <v>1.02383082006152</v>
+        <v>1.049801108321652</v>
       </c>
       <c r="F5">
-        <v>1.02769029688316</v>
+        <v>1.05841534738318</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046648116127956</v>
+        <v>1.037064087387848</v>
       </c>
       <c r="J5">
-        <v>1.031524346191222</v>
+        <v>1.047089142871445</v>
       </c>
       <c r="K5">
-        <v>1.041867752564893</v>
+        <v>1.037470481452589</v>
       </c>
       <c r="L5">
-        <v>1.033432280901486</v>
+        <v>1.052199639186843</v>
       </c>
       <c r="M5">
-        <v>1.037249108420789</v>
+        <v>1.060793348392515</v>
       </c>
       <c r="N5">
-        <v>1.0140224186088</v>
+        <v>1.019540665350924</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013134719675224</v>
+        <v>1.042738361131626</v>
       </c>
       <c r="D6">
-        <v>1.03246816030802</v>
+        <v>1.035059199365678</v>
       </c>
       <c r="E6">
-        <v>1.024044146461958</v>
+        <v>1.049849752046432</v>
       </c>
       <c r="F6">
-        <v>1.027934671749647</v>
+        <v>1.058471845480758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046702938678716</v>
+        <v>1.03707335136815</v>
       </c>
       <c r="J6">
-        <v>1.031687106575027</v>
+        <v>1.047125579469897</v>
       </c>
       <c r="K6">
-        <v>1.041938586803837</v>
+        <v>1.037485002717877</v>
       </c>
       <c r="L6">
-        <v>1.033606714429898</v>
+        <v>1.052239587431588</v>
       </c>
       <c r="M6">
-        <v>1.037454454876611</v>
+        <v>1.060841211379097</v>
       </c>
       <c r="N6">
-        <v>1.014078559109532</v>
+        <v>1.019553024928503</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011454087490762</v>
+        <v>1.042375731515002</v>
       </c>
       <c r="D7">
-        <v>1.031722181985346</v>
+        <v>1.03489904024532</v>
       </c>
       <c r="E7">
-        <v>1.022572044181592</v>
+        <v>1.049515290887577</v>
       </c>
       <c r="F7">
-        <v>1.02624841290847</v>
+        <v>1.058083401289837</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046323736179221</v>
+        <v>1.037009550097554</v>
       </c>
       <c r="J7">
-        <v>1.030563281166582</v>
+        <v>1.046874981664925</v>
       </c>
       <c r="K7">
-        <v>1.041449371025856</v>
+        <v>1.037385100461001</v>
       </c>
       <c r="L7">
-        <v>1.032402555826643</v>
+        <v>1.051964869266247</v>
       </c>
       <c r="M7">
-        <v>1.03603713839853</v>
+        <v>1.060512097698745</v>
       </c>
       <c r="N7">
-        <v>1.013690862883748</v>
+        <v>1.019468007545049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004260815192639</v>
+        <v>1.040859762790886</v>
       </c>
       <c r="D8">
-        <v>1.028543058950846</v>
+        <v>1.034229778020917</v>
       </c>
       <c r="E8">
-        <v>1.016283984901002</v>
+        <v>1.048117848356079</v>
       </c>
       <c r="F8">
-        <v>1.019047939087451</v>
+        <v>1.056460941662834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04468183247088</v>
+        <v>1.036740370988414</v>
       </c>
       <c r="J8">
-        <v>1.025746138111146</v>
+        <v>1.045826202412947</v>
       </c>
       <c r="K8">
-        <v>1.039349793291281</v>
+        <v>1.036966251515923</v>
       </c>
       <c r="L8">
-        <v>1.02724780608203</v>
+        <v>1.050815927867176</v>
       </c>
       <c r="M8">
-        <v>1.029975930324387</v>
+        <v>1.059136481617488</v>
       </c>
       <c r="N8">
-        <v>1.01202764551226</v>
+        <v>1.019111885967245</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9908881261519983</v>
+        <v>1.038187454497957</v>
       </c>
       <c r="D9">
-        <v>1.022695230824789</v>
+        <v>1.03305119596516</v>
       </c>
       <c r="E9">
-        <v>1.004646770747427</v>
+        <v>1.045657407262588</v>
       </c>
       <c r="F9">
-        <v>1.005729470492221</v>
+        <v>1.053606315657373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041560657650898</v>
+        <v>1.036256626609897</v>
       </c>
       <c r="J9">
-        <v>1.016766802800473</v>
+        <v>1.043973098680313</v>
       </c>
       <c r="K9">
-        <v>1.035430520609626</v>
+        <v>1.03622342322234</v>
       </c>
       <c r="L9">
-        <v>1.017664904548567</v>
+        <v>1.048788799861154</v>
       </c>
       <c r="M9">
-        <v>1.018730269983357</v>
+        <v>1.056712509142609</v>
       </c>
       <c r="N9">
-        <v>1.00892260072647</v>
+        <v>1.018481472848548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9814393378233223</v>
+        <v>1.036405173670799</v>
       </c>
       <c r="D10">
-        <v>1.018615222803462</v>
+        <v>1.03226604324953</v>
       </c>
       <c r="E10">
-        <v>0.9964639021595362</v>
+        <v>1.044018434816761</v>
       </c>
       <c r="F10">
-        <v>0.9963676308483381</v>
+        <v>1.051706092326859</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039312593307286</v>
+        <v>1.035927805657276</v>
       </c>
       <c r="J10">
-        <v>1.0104092163876</v>
+        <v>1.042734280807751</v>
       </c>
       <c r="K10">
-        <v>1.032656315576945</v>
+        <v>1.035725036074683</v>
       </c>
       <c r="L10">
-        <v>1.010897296809014</v>
+        <v>1.0474356269876</v>
       </c>
       <c r="M10">
-        <v>1.010802780019254</v>
+        <v>1.055096497726269</v>
       </c>
       <c r="N10">
-        <v>1.006721590973199</v>
+        <v>1.018059253427595</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9772051302947933</v>
+        <v>1.035633230815336</v>
       </c>
       <c r="D11">
-        <v>1.016801504242815</v>
+        <v>1.031926212602915</v>
       </c>
       <c r="E11">
-        <v>0.9928073725871961</v>
+        <v>1.043309044467686</v>
       </c>
       <c r="F11">
-        <v>0.9921846173013334</v>
+        <v>1.050883937300936</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038295987353533</v>
+        <v>1.035783923395868</v>
       </c>
       <c r="J11">
-        <v>1.007557940986718</v>
+        <v>1.042197039325576</v>
       </c>
       <c r="K11">
-        <v>1.03141337527907</v>
+        <v>1.03550848435843</v>
       </c>
       <c r="L11">
-        <v>1.007866218118832</v>
+        <v>1.046849261998886</v>
       </c>
       <c r="M11">
-        <v>1.007255440805515</v>
+        <v>1.054396726652747</v>
       </c>
       <c r="N11">
-        <v>1.005734018011977</v>
+        <v>1.01787596484268</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9756093686473206</v>
+        <v>1.03534646450689</v>
       </c>
       <c r="D12">
-        <v>1.016120366551519</v>
+        <v>1.03180000738221</v>
       </c>
       <c r="E12">
-        <v>0.9914309740962383</v>
+        <v>1.043045588689996</v>
       </c>
       <c r="F12">
-        <v>0.990610050918775</v>
+        <v>1.05057864914139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037911558233679</v>
+        <v>1.035730253688878</v>
       </c>
       <c r="J12">
-        <v>1.006483096456348</v>
+        <v>1.041997359025582</v>
       </c>
       <c r="K12">
-        <v>1.030945108088253</v>
+        <v>1.035427935729794</v>
       </c>
       <c r="L12">
-        <v>1.006724205313972</v>
+        <v>1.046631394034383</v>
       </c>
       <c r="M12">
-        <v>1.005919386046971</v>
+        <v>1.054136795154715</v>
       </c>
       <c r="N12">
-        <v>1.005361678040208</v>
+        <v>1.017807813274197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.975952731379754</v>
+        <v>1.035407978346642</v>
       </c>
       <c r="D13">
-        <v>1.016266816000263</v>
+        <v>1.031827077771073</v>
       </c>
       <c r="E13">
-        <v>0.9917270599800527</v>
+        <v>1.043102098901796</v>
       </c>
       <c r="F13">
-        <v>0.9909487660650542</v>
+        <v>1.050644130130011</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037994333654611</v>
+        <v>1.035741776223989</v>
       </c>
       <c r="J13">
-        <v>1.006714383719171</v>
+        <v>1.042040196794227</v>
       </c>
       <c r="K13">
-        <v>1.031045856372446</v>
+        <v>1.035445218729516</v>
       </c>
       <c r="L13">
-        <v>1.006969918360957</v>
+        <v>1.046678130449972</v>
       </c>
       <c r="M13">
-        <v>1.006206827869112</v>
+        <v>1.054192551606023</v>
       </c>
       <c r="N13">
-        <v>1.00544180117628</v>
+        <v>1.017822435189049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9770737024617637</v>
+        <v>1.035609527293328</v>
       </c>
       <c r="D14">
-        <v>1.016745355271224</v>
+        <v>1.03191577996406</v>
       </c>
       <c r="E14">
-        <v>0.9926939775472292</v>
+        <v>1.043287266251799</v>
       </c>
       <c r="F14">
-        <v>0.9920548961191755</v>
+        <v>1.050858700119742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038264351384387</v>
+        <v>1.035779491639698</v>
       </c>
       <c r="J14">
-        <v>1.007469421306637</v>
+        <v>1.042180536242796</v>
       </c>
       <c r="K14">
-        <v>1.031374804426191</v>
+        <v>1.035501828458903</v>
       </c>
       <c r="L14">
-        <v>1.007772154319803</v>
+        <v>1.046831254314906</v>
       </c>
       <c r="M14">
-        <v>1.007145385001832</v>
+        <v>1.054375240750622</v>
       </c>
       <c r="N14">
-        <v>1.005703354689699</v>
+        <v>1.017870332842451</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9777612753148517</v>
+        <v>1.035733703909658</v>
       </c>
       <c r="D15">
-        <v>1.017039201290171</v>
+        <v>1.031970435395678</v>
       </c>
       <c r="E15">
-        <v>0.9932872785183411</v>
+        <v>1.043401359685701</v>
       </c>
       <c r="F15">
-        <v>0.9927336183377014</v>
+        <v>1.050990916558329</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03842980462938</v>
+        <v>1.03580269948124</v>
       </c>
       <c r="J15">
-        <v>1.007932506797769</v>
+        <v>1.042266987431763</v>
       </c>
       <c r="K15">
-        <v>1.031576597705788</v>
+        <v>1.035536692798366</v>
       </c>
       <c r="L15">
-        <v>1.008264268453945</v>
+        <v>1.04692559022053</v>
       </c>
       <c r="M15">
-        <v>1.007721183572489</v>
+        <v>1.054487800814284</v>
       </c>
       <c r="N15">
-        <v>1.005863765902642</v>
+        <v>1.017899834882319</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9817172116830905</v>
+        <v>1.036456400535751</v>
       </c>
       <c r="D16">
-        <v>1.018734570912368</v>
+        <v>1.032288599855766</v>
       </c>
       <c r="E16">
-        <v>0.9967040887444761</v>
+        <v>1.044065520857723</v>
       </c>
       <c r="F16">
-        <v>0.9966424044808444</v>
+        <v>1.051760669706792</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039379124925321</v>
+        <v>1.035937323034703</v>
       </c>
       <c r="J16">
-        <v>1.010596292149742</v>
+        <v>1.042769918291673</v>
       </c>
       <c r="K16">
-        <v>1.032737900344681</v>
+        <v>1.035739392209139</v>
       </c>
       <c r="L16">
-        <v>1.011096254406494</v>
+        <v>1.047474532912291</v>
       </c>
       <c r="M16">
-        <v>1.011035690261262</v>
+        <v>1.055142938543502</v>
       </c>
       <c r="N16">
-        <v>1.006786378543945</v>
+        <v>1.018071407877905</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9841593918247973</v>
+        <v>1.036909673292835</v>
       </c>
       <c r="D17">
-        <v>1.019785181357345</v>
+        <v>1.032488215812649</v>
       </c>
       <c r="E17">
-        <v>0.99881623170712</v>
+        <v>1.044482210020287</v>
       </c>
       <c r="F17">
-        <v>0.9990587319422384</v>
+        <v>1.052243689639146</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0399628248297</v>
+        <v>1.036021367090834</v>
       </c>
       <c r="J17">
-        <v>1.012240212241996</v>
+        <v>1.043085171962893</v>
       </c>
       <c r="K17">
-        <v>1.03345497543414</v>
+        <v>1.035866340623725</v>
       </c>
       <c r="L17">
-        <v>1.012845048553798</v>
+        <v>1.047818753765545</v>
       </c>
       <c r="M17">
-        <v>1.013083285149774</v>
+        <v>1.055553880906366</v>
       </c>
       <c r="N17">
-        <v>1.007355646440777</v>
+        <v>1.018178906508793</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.985570204836276</v>
+        <v>1.037174040108892</v>
       </c>
       <c r="D18">
-        <v>1.020393472005942</v>
+        <v>1.032604662401966</v>
       </c>
       <c r="E18">
-        <v>1.000037362888372</v>
+        <v>1.044725286342274</v>
       </c>
       <c r="F18">
-        <v>1.000455761791119</v>
+        <v>1.052525490214346</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040299144682158</v>
+        <v>1.036070243777435</v>
       </c>
       <c r="J18">
-        <v>1.013189659063323</v>
+        <v>1.043268974540722</v>
       </c>
       <c r="K18">
-        <v>1.033869233657795</v>
+        <v>1.035940315397017</v>
       </c>
       <c r="L18">
-        <v>1.013855451431356</v>
+        <v>1.048019490328888</v>
       </c>
       <c r="M18">
-        <v>1.014266632827648</v>
+        <v>1.055793574067048</v>
       </c>
       <c r="N18">
-        <v>1.007684383437047</v>
+        <v>1.018241563809373</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9860489812697341</v>
+        <v>1.037264179105708</v>
       </c>
       <c r="D19">
-        <v>1.020600128809515</v>
+        <v>1.032644370016279</v>
       </c>
       <c r="E19">
-        <v>1.000451931487151</v>
+        <v>1.04480817396554</v>
       </c>
       <c r="F19">
-        <v>1.00093005425965</v>
+        <v>1.052621587695971</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040413127954704</v>
+        <v>1.03608688490499</v>
       </c>
       <c r="J19">
-        <v>1.013511825478287</v>
+        <v>1.043331633003955</v>
       </c>
       <c r="K19">
-        <v>1.034009815888083</v>
+        <v>1.035965526639643</v>
       </c>
       <c r="L19">
-        <v>1.014198366991681</v>
+        <v>1.048087929276551</v>
       </c>
       <c r="M19">
-        <v>1.014668295699197</v>
+        <v>1.055875302842826</v>
       </c>
       <c r="N19">
-        <v>1.007795922668685</v>
+        <v>1.018262920731353</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9838987935070647</v>
+        <v>1.036861043446859</v>
       </c>
       <c r="D20">
-        <v>1.019672930163657</v>
+        <v>1.032466797455525</v>
       </c>
       <c r="E20">
-        <v>0.9985907488024734</v>
+        <v>1.0444375002673</v>
       </c>
       <c r="F20">
-        <v>0.9988007722996864</v>
+        <v>1.052191859642793</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039900630110137</v>
+        <v>1.036012364935035</v>
       </c>
       <c r="J20">
-        <v>1.012064816671277</v>
+        <v>1.043051356462717</v>
       </c>
       <c r="K20">
-        <v>1.03337845598053</v>
+        <v>1.035852727713001</v>
       </c>
       <c r="L20">
-        <v>1.01265842353893</v>
+        <v>1.04778182643913</v>
       </c>
       <c r="M20">
-        <v>1.012864741508517</v>
+        <v>1.055509790954195</v>
       </c>
       <c r="N20">
-        <v>1.007294913730972</v>
+        <v>1.018167377561618</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9767442520317957</v>
+        <v>1.035550177059699</v>
       </c>
       <c r="D21">
-        <v>1.016604645972131</v>
+        <v>1.031889658734792</v>
       </c>
       <c r="E21">
-        <v>0.9924097568620969</v>
+        <v>1.043232737892982</v>
       </c>
       <c r="F21">
-        <v>0.9917297545925778</v>
+        <v>1.050795511944752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038185028852642</v>
+        <v>1.035768391612565</v>
       </c>
       <c r="J21">
-        <v>1.007247524684335</v>
+        <v>1.042139213228118</v>
       </c>
       <c r="K21">
-        <v>1.031278121881764</v>
+        <v>1.035485161383314</v>
       </c>
       <c r="L21">
-        <v>1.007536369831223</v>
+        <v>1.046786164980118</v>
       </c>
       <c r="M21">
-        <v>1.006869521727804</v>
+        <v>1.054321443508965</v>
       </c>
       <c r="N21">
-        <v>1.005626488600526</v>
+        <v>1.017856230112029</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9721120369867056</v>
+        <v>1.034725795215973</v>
       </c>
       <c r="D22">
-        <v>1.014632229013994</v>
+        <v>1.031526922409687</v>
       </c>
       <c r="E22">
-        <v>0.9884175536991501</v>
+        <v>1.042475506469878</v>
       </c>
       <c r="F22">
-        <v>0.9871627484145098</v>
+        <v>1.049918132190795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03706673918157</v>
+        <v>1.035613691650738</v>
       </c>
       <c r="J22">
-        <v>1.004127006852131</v>
+        <v>1.041564989525074</v>
       </c>
       <c r="K22">
-        <v>1.029919286769109</v>
+        <v>1.035253411954698</v>
       </c>
       <c r="L22">
-        <v>1.004222006794346</v>
+        <v>1.046159771347718</v>
       </c>
       <c r="M22">
-        <v>1.002992876591347</v>
+        <v>1.053574250656398</v>
       </c>
       <c r="N22">
-        <v>1.004545412810504</v>
+        <v>1.01766019410674</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9745809011838177</v>
+        <v>1.035162834058212</v>
       </c>
       <c r="D23">
-        <v>1.015682078693826</v>
+        <v>1.031719202751471</v>
       </c>
       <c r="E23">
-        <v>0.9905443633987573</v>
+        <v>1.042876905770671</v>
       </c>
       <c r="F23">
-        <v>0.9895957882043238</v>
+        <v>1.050383195257936</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037663439417139</v>
+        <v>1.035695824648208</v>
       </c>
       <c r="J23">
-        <v>1.005790292111131</v>
+        <v>1.041869465219425</v>
       </c>
       <c r="K23">
-        <v>1.030643373144331</v>
+        <v>1.035376327762645</v>
       </c>
       <c r="L23">
-        <v>1.005988279191671</v>
+        <v>1.046491870973177</v>
       </c>
       <c r="M23">
-        <v>1.005058546927183</v>
+        <v>1.053970355138613</v>
       </c>
       <c r="N23">
-        <v>1.005121667991502</v>
+        <v>1.017764154982168</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9840165887988207</v>
+        <v>1.036883017240804</v>
       </c>
       <c r="D24">
-        <v>1.019723665564734</v>
+        <v>1.03247647544608</v>
       </c>
       <c r="E24">
-        <v>0.9986926682520815</v>
+        <v>1.044457702591508</v>
       </c>
       <c r="F24">
-        <v>0.9989173712927844</v>
+        <v>1.05221527919137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039928746003836</v>
+        <v>1.036016433069066</v>
       </c>
       <c r="J24">
-        <v>1.012144099431137</v>
+        <v>1.043066636477176</v>
       </c>
       <c r="K24">
-        <v>1.033413044164266</v>
+        <v>1.035858879024159</v>
       </c>
       <c r="L24">
-        <v>1.012742781063267</v>
+        <v>1.047798512436748</v>
       </c>
       <c r="M24">
-        <v>1.012963525816374</v>
+        <v>1.055529713313296</v>
       </c>
       <c r="N24">
-        <v>1.007322366425042</v>
+        <v>1.018172587135024</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9944342599034475</v>
+        <v>1.038878434819709</v>
       </c>
       <c r="D25">
-        <v>1.024237755931237</v>
+        <v>1.03335579245298</v>
       </c>
       <c r="E25">
-        <v>1.00772619087256</v>
+        <v>1.046293254081651</v>
       </c>
       <c r="F25">
-        <v>1.009253095511556</v>
+        <v>1.054343795741881</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042395941841824</v>
+        <v>1.036382801360267</v>
       </c>
       <c r="J25">
-        <v>1.019150396253634</v>
+        <v>1.044452769478076</v>
       </c>
       <c r="K25">
-        <v>1.036471112726808</v>
+        <v>1.036416023050705</v>
       </c>
       <c r="L25">
-        <v>1.020205740074541</v>
+        <v>1.049313167138548</v>
       </c>
       <c r="M25">
-        <v>1.021709447413</v>
+        <v>1.057339165277158</v>
       </c>
       <c r="N25">
-        <v>1.009747332076143</v>
+        <v>1.018644791897022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_71/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_71/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.040469427188328</v>
+        <v>1.002363858667835</v>
       </c>
       <c r="D2">
-        <v>1.03405753044538</v>
+        <v>1.027708494305021</v>
       </c>
       <c r="E2">
-        <v>1.047758228971069</v>
+        <v>1.014629103432553</v>
       </c>
       <c r="F2">
-        <v>1.056043552281245</v>
+        <v>1.017153475820463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036670433895397</v>
+        <v>1.044244147358452</v>
       </c>
       <c r="J2">
-        <v>1.045555864413027</v>
+        <v>1.024474096274965</v>
       </c>
       <c r="K2">
-        <v>1.036858098106587</v>
+        <v>1.038794844447907</v>
       </c>
       <c r="L2">
-        <v>1.050519972059028</v>
+        <v>1.025888325430442</v>
       </c>
       <c r="M2">
-        <v>1.058782346459902</v>
+        <v>1.028378898136779</v>
       </c>
       <c r="N2">
-        <v>1.019020010373312</v>
+        <v>1.011588110185734</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.04162434526889</v>
+        <v>1.007922923618469</v>
       </c>
       <c r="D3">
-        <v>1.034567264428856</v>
+        <v>1.030158736750835</v>
       </c>
       <c r="E3">
-        <v>1.0488224980137</v>
+        <v>1.019482703787084</v>
       </c>
       <c r="F3">
-        <v>1.057278947973397</v>
+        <v>1.022710357301729</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036876622630976</v>
+        <v>1.045521401394235</v>
       </c>
       <c r="J3">
-        <v>1.046355387686997</v>
+        <v>1.028199907516385</v>
       </c>
       <c r="K3">
-        <v>1.037177739477238</v>
+        <v>1.040419742272449</v>
       </c>
       <c r="L3">
-        <v>1.051395495823166</v>
+        <v>1.029872223919628</v>
       </c>
       <c r="M3">
-        <v>1.059830228762355</v>
+        <v>1.033060672605983</v>
       </c>
       <c r="N3">
-        <v>1.019291637777339</v>
+        <v>1.012875127979134</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042371534510398</v>
+        <v>1.011434547080912</v>
       </c>
       <c r="D4">
-        <v>1.034897186743521</v>
+        <v>1.031713515648018</v>
       </c>
       <c r="E4">
-        <v>1.049511420318782</v>
+        <v>1.022554935007401</v>
       </c>
       <c r="F4">
-        <v>1.05807890629347</v>
+        <v>1.026228816094158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037008810324822</v>
+        <v>1.04631931688457</v>
       </c>
       <c r="J4">
-        <v>1.04687208065869</v>
+        <v>1.030550210697164</v>
       </c>
       <c r="K4">
-        <v>1.037383943545992</v>
+        <v>1.041443679674978</v>
       </c>
       <c r="L4">
-        <v>1.051961689464372</v>
+        <v>1.032388554700904</v>
       </c>
       <c r="M4">
-        <v>1.060508288731429</v>
+        <v>1.036020662112927</v>
       </c>
       <c r="N4">
-        <v>1.019467023181818</v>
+        <v>1.013686353058058</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042685625450426</v>
+        <v>1.012891255389572</v>
       </c>
       <c r="D5">
-        <v>1.035035906536953</v>
+        <v>1.032360020739599</v>
       </c>
       <c r="E5">
-        <v>1.049801108321652</v>
+        <v>1.02383082006152</v>
       </c>
       <c r="F5">
-        <v>1.05841534738318</v>
+        <v>1.02769029688316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037064087387848</v>
+        <v>1.046648116127956</v>
       </c>
       <c r="J5">
-        <v>1.047089142871445</v>
+        <v>1.031524346191222</v>
       </c>
       <c r="K5">
-        <v>1.037470481452589</v>
+        <v>1.041867752564893</v>
       </c>
       <c r="L5">
-        <v>1.052199639186843</v>
+        <v>1.033432280901485</v>
       </c>
       <c r="M5">
-        <v>1.060793348392515</v>
+        <v>1.037249108420789</v>
       </c>
       <c r="N5">
-        <v>1.019540665350924</v>
+        <v>1.0140224186088</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042738361131626</v>
+        <v>1.013134719675225</v>
       </c>
       <c r="D6">
-        <v>1.035059199365678</v>
+        <v>1.03246816030802</v>
       </c>
       <c r="E6">
-        <v>1.049849752046432</v>
+        <v>1.024044146461958</v>
       </c>
       <c r="F6">
-        <v>1.058471845480758</v>
+        <v>1.027934671749647</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03707335136815</v>
+        <v>1.046702938678716</v>
       </c>
       <c r="J6">
-        <v>1.047125579469897</v>
+        <v>1.031687106575028</v>
       </c>
       <c r="K6">
-        <v>1.037485002717877</v>
+        <v>1.041938586803838</v>
       </c>
       <c r="L6">
-        <v>1.052239587431588</v>
+        <v>1.033606714429899</v>
       </c>
       <c r="M6">
-        <v>1.060841211379097</v>
+        <v>1.037454454876611</v>
       </c>
       <c r="N6">
-        <v>1.019553024928503</v>
+        <v>1.014078559109533</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042375731515002</v>
+        <v>1.011454087490762</v>
       </c>
       <c r="D7">
-        <v>1.03489904024532</v>
+        <v>1.031722181985347</v>
       </c>
       <c r="E7">
-        <v>1.049515290887577</v>
+        <v>1.022572044181592</v>
       </c>
       <c r="F7">
-        <v>1.058083401289837</v>
+        <v>1.02624841290847</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037009550097554</v>
+        <v>1.046323736179221</v>
       </c>
       <c r="J7">
-        <v>1.046874981664925</v>
+        <v>1.030563281166582</v>
       </c>
       <c r="K7">
-        <v>1.037385100461001</v>
+        <v>1.041449371025856</v>
       </c>
       <c r="L7">
-        <v>1.051964869266247</v>
+        <v>1.032402555826644</v>
       </c>
       <c r="M7">
-        <v>1.060512097698745</v>
+        <v>1.03603713839853</v>
       </c>
       <c r="N7">
-        <v>1.019468007545049</v>
+        <v>1.013690862883749</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.040859762790886</v>
+        <v>1.004260815192638</v>
       </c>
       <c r="D8">
-        <v>1.034229778020917</v>
+        <v>1.028543058950845</v>
       </c>
       <c r="E8">
-        <v>1.048117848356079</v>
+        <v>1.016283984901001</v>
       </c>
       <c r="F8">
-        <v>1.056460941662834</v>
+        <v>1.01904793908745</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036740370988414</v>
+        <v>1.04468183247088</v>
       </c>
       <c r="J8">
-        <v>1.045826202412947</v>
+        <v>1.025746138111145</v>
       </c>
       <c r="K8">
-        <v>1.036966251515923</v>
+        <v>1.03934979329128</v>
       </c>
       <c r="L8">
-        <v>1.050815927867176</v>
+        <v>1.027247806082029</v>
       </c>
       <c r="M8">
-        <v>1.059136481617488</v>
+        <v>1.029975930324386</v>
       </c>
       <c r="N8">
-        <v>1.019111885967245</v>
+        <v>1.012027645512259</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038187454497957</v>
+        <v>0.9908881261519986</v>
       </c>
       <c r="D9">
-        <v>1.03305119596516</v>
+        <v>1.022695230824789</v>
       </c>
       <c r="E9">
-        <v>1.045657407262588</v>
+        <v>1.004646770747428</v>
       </c>
       <c r="F9">
-        <v>1.053606315657373</v>
+        <v>1.005729470492221</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036256626609897</v>
+        <v>1.041560657650898</v>
       </c>
       <c r="J9">
-        <v>1.043973098680313</v>
+        <v>1.016766802800474</v>
       </c>
       <c r="K9">
-        <v>1.03622342322234</v>
+        <v>1.035430520609626</v>
       </c>
       <c r="L9">
-        <v>1.048788799861154</v>
+        <v>1.017664904548568</v>
       </c>
       <c r="M9">
-        <v>1.056712509142609</v>
+        <v>1.018730269983357</v>
       </c>
       <c r="N9">
-        <v>1.018481472848548</v>
+        <v>1.00892260072647</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036405173670799</v>
+        <v>0.9814393378233223</v>
       </c>
       <c r="D10">
-        <v>1.03226604324953</v>
+        <v>1.018615222803462</v>
       </c>
       <c r="E10">
-        <v>1.044018434816761</v>
+        <v>0.9964639021595362</v>
       </c>
       <c r="F10">
-        <v>1.051706092326859</v>
+        <v>0.9963676308483379</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035927805657276</v>
+        <v>1.039312593307286</v>
       </c>
       <c r="J10">
-        <v>1.042734280807751</v>
+        <v>1.0104092163876</v>
       </c>
       <c r="K10">
-        <v>1.035725036074683</v>
+        <v>1.032656315576945</v>
       </c>
       <c r="L10">
-        <v>1.0474356269876</v>
+        <v>1.010897296809014</v>
       </c>
       <c r="M10">
-        <v>1.055096497726269</v>
+        <v>1.010802780019254</v>
       </c>
       <c r="N10">
-        <v>1.018059253427595</v>
+        <v>1.006721590973199</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035633230815336</v>
+        <v>0.9772051302947936</v>
       </c>
       <c r="D11">
-        <v>1.031926212602915</v>
+        <v>1.016801504242816</v>
       </c>
       <c r="E11">
-        <v>1.043309044467686</v>
+        <v>0.9928073725871966</v>
       </c>
       <c r="F11">
-        <v>1.050883937300936</v>
+        <v>0.9921846173013341</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035783923395868</v>
+        <v>1.038295987353534</v>
       </c>
       <c r="J11">
-        <v>1.042197039325576</v>
+        <v>1.007557940986719</v>
       </c>
       <c r="K11">
-        <v>1.03550848435843</v>
+        <v>1.03141337527907</v>
       </c>
       <c r="L11">
-        <v>1.046849261998886</v>
+        <v>1.007866218118832</v>
       </c>
       <c r="M11">
-        <v>1.054396726652747</v>
+        <v>1.007255440805516</v>
       </c>
       <c r="N11">
-        <v>1.01787596484268</v>
+        <v>1.005734018011977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03534646450689</v>
+        <v>0.9756093686473203</v>
       </c>
       <c r="D12">
-        <v>1.03180000738221</v>
+        <v>1.016120366551518</v>
       </c>
       <c r="E12">
-        <v>1.043045588689996</v>
+        <v>0.9914309740962377</v>
       </c>
       <c r="F12">
-        <v>1.05057864914139</v>
+        <v>0.9906100509187743</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035730253688878</v>
+        <v>1.037911558233679</v>
       </c>
       <c r="J12">
-        <v>1.041997359025582</v>
+        <v>1.006483096456347</v>
       </c>
       <c r="K12">
-        <v>1.035427935729794</v>
+        <v>1.030945108088253</v>
       </c>
       <c r="L12">
-        <v>1.046631394034383</v>
+        <v>1.006724205313972</v>
       </c>
       <c r="M12">
-        <v>1.054136795154715</v>
+        <v>1.005919386046971</v>
       </c>
       <c r="N12">
-        <v>1.017807813274197</v>
+        <v>1.005361678040208</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035407978346642</v>
+        <v>0.9759527313797535</v>
       </c>
       <c r="D13">
-        <v>1.031827077771073</v>
+        <v>1.016266816000263</v>
       </c>
       <c r="E13">
-        <v>1.043102098901796</v>
+        <v>0.9917270599800523</v>
       </c>
       <c r="F13">
-        <v>1.050644130130011</v>
+        <v>0.9909487660650538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035741776223989</v>
+        <v>1.037994333654611</v>
       </c>
       <c r="J13">
-        <v>1.042040196794227</v>
+        <v>1.006714383719171</v>
       </c>
       <c r="K13">
-        <v>1.035445218729516</v>
+        <v>1.031045856372446</v>
       </c>
       <c r="L13">
-        <v>1.046678130449972</v>
+        <v>1.006969918360956</v>
       </c>
       <c r="M13">
-        <v>1.054192551606023</v>
+        <v>1.006206827869112</v>
       </c>
       <c r="N13">
-        <v>1.017822435189049</v>
+        <v>1.00544180117628</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035609527293328</v>
+        <v>0.9770737024617626</v>
       </c>
       <c r="D14">
-        <v>1.03191577996406</v>
+        <v>1.016745355271224</v>
       </c>
       <c r="E14">
-        <v>1.043287266251799</v>
+        <v>0.9926939775472282</v>
       </c>
       <c r="F14">
-        <v>1.050858700119742</v>
+        <v>0.9920548961191742</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035779491639698</v>
+        <v>1.038264351384387</v>
       </c>
       <c r="J14">
-        <v>1.042180536242796</v>
+        <v>1.007469421306636</v>
       </c>
       <c r="K14">
-        <v>1.035501828458903</v>
+        <v>1.03137480442619</v>
       </c>
       <c r="L14">
-        <v>1.046831254314906</v>
+        <v>1.007772154319802</v>
       </c>
       <c r="M14">
-        <v>1.054375240750622</v>
+        <v>1.00714538500183</v>
       </c>
       <c r="N14">
-        <v>1.017870332842451</v>
+        <v>1.005703354689699</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035733703909658</v>
+        <v>0.9777612753148512</v>
       </c>
       <c r="D15">
-        <v>1.031970435395678</v>
+        <v>1.017039201290171</v>
       </c>
       <c r="E15">
-        <v>1.043401359685701</v>
+        <v>0.9932872785183405</v>
       </c>
       <c r="F15">
-        <v>1.050990916558329</v>
+        <v>0.9927336183377007</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03580269948124</v>
+        <v>1.03842980462938</v>
       </c>
       <c r="J15">
-        <v>1.042266987431763</v>
+        <v>1.007932506797769</v>
       </c>
       <c r="K15">
-        <v>1.035536692798366</v>
+        <v>1.031576597705788</v>
       </c>
       <c r="L15">
-        <v>1.04692559022053</v>
+        <v>1.008264268453945</v>
       </c>
       <c r="M15">
-        <v>1.054487800814284</v>
+        <v>1.007721183572489</v>
       </c>
       <c r="N15">
-        <v>1.017899834882319</v>
+        <v>1.005863765902642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036456400535751</v>
+        <v>0.9817172116830898</v>
       </c>
       <c r="D16">
-        <v>1.032288599855766</v>
+        <v>1.018734570912368</v>
       </c>
       <c r="E16">
-        <v>1.044065520857723</v>
+        <v>0.9967040887444755</v>
       </c>
       <c r="F16">
-        <v>1.051760669706792</v>
+        <v>0.9966424044808435</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035937323034703</v>
+        <v>1.039379124925321</v>
       </c>
       <c r="J16">
-        <v>1.042769918291673</v>
+        <v>1.010596292149742</v>
       </c>
       <c r="K16">
-        <v>1.035739392209139</v>
+        <v>1.032737900344681</v>
       </c>
       <c r="L16">
-        <v>1.047474532912291</v>
+        <v>1.011096254406493</v>
       </c>
       <c r="M16">
-        <v>1.055142938543502</v>
+        <v>1.011035690261261</v>
       </c>
       <c r="N16">
-        <v>1.018071407877905</v>
+        <v>1.006786378543945</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036909673292835</v>
+        <v>0.9841593918247958</v>
       </c>
       <c r="D17">
-        <v>1.032488215812649</v>
+        <v>1.019785181357344</v>
       </c>
       <c r="E17">
-        <v>1.044482210020287</v>
+        <v>0.9988162317071181</v>
       </c>
       <c r="F17">
-        <v>1.052243689639146</v>
+        <v>0.9990587319422363</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036021367090834</v>
+        <v>1.0399628248297</v>
       </c>
       <c r="J17">
-        <v>1.043085171962893</v>
+        <v>1.012240212241995</v>
       </c>
       <c r="K17">
-        <v>1.035866340623725</v>
+        <v>1.03345497543414</v>
       </c>
       <c r="L17">
-        <v>1.047818753765545</v>
+        <v>1.012845048553796</v>
       </c>
       <c r="M17">
-        <v>1.055553880906366</v>
+        <v>1.013083285149773</v>
       </c>
       <c r="N17">
-        <v>1.018178906508793</v>
+        <v>1.007355646440776</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037174040108892</v>
+        <v>0.9855702048362759</v>
       </c>
       <c r="D18">
-        <v>1.032604662401966</v>
+        <v>1.020393472005943</v>
       </c>
       <c r="E18">
-        <v>1.044725286342274</v>
+        <v>1.000037362888371</v>
       </c>
       <c r="F18">
-        <v>1.052525490214346</v>
+        <v>1.000455761791119</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036070243777435</v>
+        <v>1.040299144682158</v>
       </c>
       <c r="J18">
-        <v>1.043268974540722</v>
+        <v>1.013189659063323</v>
       </c>
       <c r="K18">
-        <v>1.035940315397017</v>
+        <v>1.033869233657796</v>
       </c>
       <c r="L18">
-        <v>1.048019490328888</v>
+        <v>1.013855451431356</v>
       </c>
       <c r="M18">
-        <v>1.055793574067048</v>
+        <v>1.014266632827648</v>
       </c>
       <c r="N18">
-        <v>1.018241563809373</v>
+        <v>1.007684383437047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037264179105708</v>
+        <v>0.9860489812697334</v>
       </c>
       <c r="D19">
-        <v>1.032644370016279</v>
+        <v>1.020600128809515</v>
       </c>
       <c r="E19">
-        <v>1.04480817396554</v>
+        <v>1.00045193148715</v>
       </c>
       <c r="F19">
-        <v>1.052621587695971</v>
+        <v>1.000930054259649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03608688490499</v>
+        <v>1.040413127954704</v>
       </c>
       <c r="J19">
-        <v>1.043331633003955</v>
+        <v>1.013511825478286</v>
       </c>
       <c r="K19">
-        <v>1.035965526639643</v>
+        <v>1.034009815888082</v>
       </c>
       <c r="L19">
-        <v>1.048087929276551</v>
+        <v>1.01419836699168</v>
       </c>
       <c r="M19">
-        <v>1.055875302842826</v>
+        <v>1.014668295699196</v>
       </c>
       <c r="N19">
-        <v>1.018262920731353</v>
+        <v>1.007795922668685</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036861043446859</v>
+        <v>0.9838987935070648</v>
       </c>
       <c r="D20">
-        <v>1.032466797455525</v>
+        <v>1.019672930163657</v>
       </c>
       <c r="E20">
-        <v>1.0444375002673</v>
+        <v>0.9985907488024736</v>
       </c>
       <c r="F20">
-        <v>1.052191859642793</v>
+        <v>0.9988007722996864</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036012364935035</v>
+        <v>1.039900630110137</v>
       </c>
       <c r="J20">
-        <v>1.043051356462717</v>
+        <v>1.012064816671277</v>
       </c>
       <c r="K20">
-        <v>1.035852727713001</v>
+        <v>1.03337845598053</v>
       </c>
       <c r="L20">
-        <v>1.04778182643913</v>
+        <v>1.01265842353893</v>
       </c>
       <c r="M20">
-        <v>1.055509790954195</v>
+        <v>1.012864741508517</v>
       </c>
       <c r="N20">
-        <v>1.018167377561618</v>
+        <v>1.007294913730972</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035550177059699</v>
+        <v>0.9767442520317954</v>
       </c>
       <c r="D21">
-        <v>1.031889658734792</v>
+        <v>1.016604645972131</v>
       </c>
       <c r="E21">
-        <v>1.043232737892982</v>
+        <v>0.9924097568620963</v>
       </c>
       <c r="F21">
-        <v>1.050795511944752</v>
+        <v>0.9917297545925771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035768391612565</v>
+        <v>1.038185028852642</v>
       </c>
       <c r="J21">
-        <v>1.042139213228118</v>
+        <v>1.007247524684334</v>
       </c>
       <c r="K21">
-        <v>1.035485161383314</v>
+        <v>1.031278121881764</v>
       </c>
       <c r="L21">
-        <v>1.046786164980118</v>
+        <v>1.007536369831223</v>
       </c>
       <c r="M21">
-        <v>1.054321443508965</v>
+        <v>1.006869521727803</v>
       </c>
       <c r="N21">
-        <v>1.017856230112029</v>
+        <v>1.005626488600526</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034725795215973</v>
+        <v>0.9721120369867057</v>
       </c>
       <c r="D22">
-        <v>1.031526922409687</v>
+        <v>1.014632229013994</v>
       </c>
       <c r="E22">
-        <v>1.042475506469878</v>
+        <v>0.9884175536991504</v>
       </c>
       <c r="F22">
-        <v>1.049918132190795</v>
+        <v>0.9871627484145106</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035613691650738</v>
+        <v>1.03706673918157</v>
       </c>
       <c r="J22">
-        <v>1.041564989525074</v>
+        <v>1.004127006852132</v>
       </c>
       <c r="K22">
-        <v>1.035253411954698</v>
+        <v>1.029919286769109</v>
       </c>
       <c r="L22">
-        <v>1.046159771347718</v>
+        <v>1.004222006794346</v>
       </c>
       <c r="M22">
-        <v>1.053574250656398</v>
+        <v>1.002992876591347</v>
       </c>
       <c r="N22">
-        <v>1.01766019410674</v>
+        <v>1.004545412810504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035162834058212</v>
+        <v>0.9745809011838178</v>
       </c>
       <c r="D23">
-        <v>1.031719202751471</v>
+        <v>1.015682078693826</v>
       </c>
       <c r="E23">
-        <v>1.042876905770671</v>
+        <v>0.9905443633987573</v>
       </c>
       <c r="F23">
-        <v>1.050383195257936</v>
+        <v>0.9895957882043235</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035695824648208</v>
+        <v>1.037663439417139</v>
       </c>
       <c r="J23">
-        <v>1.041869465219425</v>
+        <v>1.005790292111131</v>
       </c>
       <c r="K23">
-        <v>1.035376327762645</v>
+        <v>1.030643373144331</v>
       </c>
       <c r="L23">
-        <v>1.046491870973177</v>
+        <v>1.005988279191671</v>
       </c>
       <c r="M23">
-        <v>1.053970355138613</v>
+        <v>1.005058546927183</v>
       </c>
       <c r="N23">
-        <v>1.017764154982168</v>
+        <v>1.005121667991502</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036883017240804</v>
+        <v>0.9840165887988207</v>
       </c>
       <c r="D24">
-        <v>1.03247647544608</v>
+        <v>1.019723665564734</v>
       </c>
       <c r="E24">
-        <v>1.044457702591508</v>
+        <v>0.9986926682520813</v>
       </c>
       <c r="F24">
-        <v>1.05221527919137</v>
+        <v>0.9989173712927841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036016433069066</v>
+        <v>1.039928746003836</v>
       </c>
       <c r="J24">
-        <v>1.043066636477176</v>
+        <v>1.012144099431137</v>
       </c>
       <c r="K24">
-        <v>1.035858879024159</v>
+        <v>1.033413044164266</v>
       </c>
       <c r="L24">
-        <v>1.047798512436748</v>
+        <v>1.012742781063267</v>
       </c>
       <c r="M24">
-        <v>1.055529713313296</v>
+        <v>1.012963525816374</v>
       </c>
       <c r="N24">
-        <v>1.018172587135024</v>
+        <v>1.007322366425042</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.038878434819709</v>
+        <v>0.9944342599034466</v>
       </c>
       <c r="D25">
-        <v>1.03335579245298</v>
+        <v>1.024237755931237</v>
       </c>
       <c r="E25">
-        <v>1.046293254081651</v>
+        <v>1.007726190872559</v>
       </c>
       <c r="F25">
-        <v>1.054343795741881</v>
+        <v>1.009253095511555</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036382801360267</v>
+        <v>1.042395941841824</v>
       </c>
       <c r="J25">
-        <v>1.044452769478076</v>
+        <v>1.019150396253633</v>
       </c>
       <c r="K25">
-        <v>1.036416023050705</v>
+        <v>1.036471112726808</v>
       </c>
       <c r="L25">
-        <v>1.049313167138548</v>
+        <v>1.020205740074541</v>
       </c>
       <c r="M25">
-        <v>1.057339165277158</v>
+        <v>1.021709447412999</v>
       </c>
       <c r="N25">
-        <v>1.018644791897022</v>
+        <v>1.009747332076143</v>
       </c>
     </row>
   </sheetData>
